--- a/Curs5_web_scraping/Curs_BNR.xlsx
+++ b/Curs5_web_scraping/Curs_BNR.xlsx
@@ -598,132 +598,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18.03.2024</t>
+          <t>21.03.2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.9953</t>
+          <t xml:space="preserve">   3.0108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5419</t>
+          <t xml:space="preserve">   2.5431</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3679</t>
+          <t xml:space="preserve">   3.3767</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1628</t>
+          <t xml:space="preserve">   5.1028</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1974</t>
+          <t xml:space="preserve">   0.1971</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6666</t>
+          <t xml:space="preserve">   0.6669</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0967</t>
+          <t xml:space="preserve">   0.0976</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9715</t>
+          <t xml:space="preserve">   4.9740</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8088</t>
+          <t xml:space="preserve">   5.8165</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2606</t>
+          <t xml:space="preserve">   1.2623</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0578</t>
+          <t xml:space="preserve">   3.0154</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2586</t>
+          <t xml:space="preserve">   0.2589</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4309</t>
+          <t xml:space="preserve">   0.4319</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1537</t>
+          <t xml:space="preserve">   1.1556</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0495</t>
+          <t xml:space="preserve">   0.0497</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4392</t>
+          <t xml:space="preserve">   0.4380</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1410</t>
+          <t xml:space="preserve">   0.1405</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5614</t>
+          <t xml:space="preserve">   4.5556</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2421</t>
+          <t xml:space="preserve">   0.2431</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9133</t>
+          <t xml:space="preserve">   0.9172</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6337</t>
+          <t xml:space="preserve">   0.6328</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0550</t>
+          <t xml:space="preserve">   0.0548</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3422</t>
+          <t xml:space="preserve">   0.3433</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2729</t>
+          <t xml:space="preserve">   0.2727</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.7779</t>
+          <t xml:space="preserve">   2.7730</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -738,154 +738,154 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2421</t>
+          <t xml:space="preserve">   1.2405</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1268</t>
+          <t xml:space="preserve">   0.1263</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 316.4037</t>
+          <t xml:space="preserve"> 323.3234</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0731</t>
+          <t xml:space="preserve">   6.0646</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>20.03.2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.9969</t>
+          <t xml:space="preserve">   2.9906</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5415</t>
+          <t xml:space="preserve">   2.5431</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3726</t>
+          <t xml:space="preserve">   3.3743</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1649</t>
+          <t xml:space="preserve">   5.1460</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1974</t>
+          <t xml:space="preserve">   0.1966</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6666</t>
+          <t xml:space="preserve">   0.6670</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0955</t>
+          <t xml:space="preserve">   0.0977</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9707</t>
+          <t xml:space="preserve">   4.9739</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8212</t>
+          <t xml:space="preserve">   5.8266</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2628</t>
+          <t xml:space="preserve">   1.2584</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0679</t>
+          <t xml:space="preserve">   3.0250</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2581</t>
+          <t xml:space="preserve">   0.2591</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4314</t>
+          <t xml:space="preserve">   0.4294</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1572</t>
+          <t xml:space="preserve">   1.1509</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0497</t>
+          <t xml:space="preserve">   0.0495</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4417</t>
+          <t xml:space="preserve">   0.4372</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1419</t>
+          <t xml:space="preserve">   0.1417</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5645</t>
+          <t xml:space="preserve">   4.5885</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2442</t>
+          <t xml:space="preserve">   0.2426</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9143</t>
+          <t xml:space="preserve">   0.9120</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6343</t>
+          <t xml:space="preserve">   0.6374</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0551</t>
+          <t xml:space="preserve">   0.0552</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3432</t>
+          <t xml:space="preserve">   0.3423</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2734</t>
+          <t xml:space="preserve">   0.2726</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.7826</t>
+          <t xml:space="preserve">   2.7672</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -895,89 +895,89 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1176</t>
+          <t xml:space="preserve">   0.1172</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2429</t>
+          <t xml:space="preserve">   1.2494</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1274</t>
+          <t xml:space="preserve">   0.1268</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 318.3617</t>
+          <t xml:space="preserve"> 317.8798</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0776</t>
+          <t xml:space="preserve">   6.0908</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14.03.2024</t>
+          <t>19.03.2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0093</t>
+          <t xml:space="preserve">   2.9868</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5417</t>
+          <t xml:space="preserve">   2.5432</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3743</t>
+          <t xml:space="preserve">   3.3795</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1662</t>
+          <t xml:space="preserve">   5.1580</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1970</t>
+          <t xml:space="preserve">   0.1971</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6666</t>
+          <t xml:space="preserve">   0.6670</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0950</t>
+          <t xml:space="preserve">   0.0973</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9712</t>
+          <t xml:space="preserve">   4.9741</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8218</t>
+          <t xml:space="preserve">   5.8166</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2597</t>
+          <t xml:space="preserve">   1.2574</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0752</t>
+          <t xml:space="preserve">   3.0460</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4337</t>
+          <t xml:space="preserve">   0.4287</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1594</t>
+          <t xml:space="preserve">   1.1507</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1002,52 +1002,52 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4436</t>
+          <t xml:space="preserve">   0.4377</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1410</t>
+          <t xml:space="preserve">   0.1420</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5441</t>
+          <t xml:space="preserve">   4.5861</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2440</t>
+          <t xml:space="preserve">   0.2418</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9139</t>
+          <t xml:space="preserve">   0.9116</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6320</t>
+          <t xml:space="preserve">   0.6370</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0549</t>
+          <t xml:space="preserve">   0.0552</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3450</t>
+          <t xml:space="preserve">   0.3425</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2726</t>
+          <t xml:space="preserve">   0.2715</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.8031</t>
+          <t xml:space="preserve">   2.7726</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1057,159 +1057,159 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1175</t>
+          <t xml:space="preserve">   0.1172</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2373</t>
+          <t xml:space="preserve">   1.2488</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1276</t>
+          <t xml:space="preserve">   0.1271</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 317.1063</t>
+          <t xml:space="preserve"> 317.5551</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0645</t>
+          <t xml:space="preserve">   6.0911</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13.03.2024</t>
+          <t>18.03.2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0038</t>
+          <t xml:space="preserve">   2.9953</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5398</t>
+          <t xml:space="preserve">   2.5419</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3684</t>
+          <t xml:space="preserve">   3.3679</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1739</t>
+          <t xml:space="preserve">   5.1628</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1965</t>
+          <t xml:space="preserve">   0.1974</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6662</t>
+          <t xml:space="preserve">   0.6666</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0938</t>
+          <t xml:space="preserve">   0.0967</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9675</t>
+          <t xml:space="preserve">   4.9715</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8116</t>
+          <t xml:space="preserve">   5.8088</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2507</t>
+          <t xml:space="preserve">   1.2606</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0721</t>
+          <t xml:space="preserve">   3.0578</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2574</t>
+          <t xml:space="preserve">   0.2586</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4324</t>
+          <t xml:space="preserve">   0.4309</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1595</t>
+          <t xml:space="preserve">   1.1537</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0496</t>
+          <t xml:space="preserve">   0.0495</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4433</t>
+          <t xml:space="preserve">   0.4392</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1418</t>
+          <t xml:space="preserve">   0.1410</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5440</t>
+          <t xml:space="preserve">   4.5614</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2436</t>
+          <t xml:space="preserve">   0.2421</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9143</t>
+          <t xml:space="preserve">   0.9133</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6317</t>
+          <t xml:space="preserve">   0.6337</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0549</t>
+          <t xml:space="preserve">   0.0550</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3454</t>
+          <t xml:space="preserve">   0.3422</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2710</t>
+          <t xml:space="preserve">   0.2729</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.7959</t>
+          <t xml:space="preserve">   2.7779</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1219,159 +1219,159 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1171</t>
+          <t xml:space="preserve">   0.1170</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2372</t>
+          <t xml:space="preserve">   1.2421</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1273</t>
+          <t xml:space="preserve">   0.1268</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 316.0494</t>
+          <t xml:space="preserve"> 316.4037</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0616</t>
+          <t xml:space="preserve">   6.0731</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12.03.2024</t>
+          <t>15.03.2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0046</t>
+          <t xml:space="preserve">   2.9969</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5393</t>
+          <t xml:space="preserve">   2.5415</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3725</t>
+          <t xml:space="preserve">   3.3726</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1829</t>
+          <t xml:space="preserve">   5.1649</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1964</t>
+          <t xml:space="preserve">   0.1974</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6660</t>
+          <t xml:space="preserve">   0.6666</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0931</t>
+          <t xml:space="preserve">   0.0955</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9665</t>
+          <t xml:space="preserve">   4.9707</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8129</t>
+          <t xml:space="preserve">   5.8212</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2521</t>
+          <t xml:space="preserve">   1.2628</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0823</t>
+          <t xml:space="preserve">   3.0679</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2563</t>
+          <t xml:space="preserve">   0.2581</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4347</t>
+          <t xml:space="preserve">   0.4314</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1595</t>
+          <t xml:space="preserve">   1.1572</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0498</t>
+          <t xml:space="preserve">   0.0497</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4449</t>
+          <t xml:space="preserve">   0.4417</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1417</t>
+          <t xml:space="preserve">   0.1419</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5427</t>
+          <t xml:space="preserve">   4.5645</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2445</t>
+          <t xml:space="preserve">   0.2442</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9130</t>
+          <t xml:space="preserve">   0.9143</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6330</t>
+          <t xml:space="preserve">   0.6343</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0549</t>
+          <t xml:space="preserve">   0.0551</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3470</t>
+          <t xml:space="preserve">   0.3432</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2706</t>
+          <t xml:space="preserve">   0.2734</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.7995</t>
+          <t xml:space="preserve">   2.7826</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1381,139 +1381,139 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1180</t>
+          <t xml:space="preserve">   0.1176</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2368</t>
+          <t xml:space="preserve">   1.2429</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1277</t>
+          <t xml:space="preserve">   0.1274</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 317.8931</t>
+          <t xml:space="preserve"> 318.3617</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0632</t>
+          <t xml:space="preserve">   6.0776</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11.03.2024</t>
+          <t>14.03.2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0037</t>
+          <t xml:space="preserve">   3.0093</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5396</t>
+          <t xml:space="preserve">   2.5417</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3695</t>
+          <t xml:space="preserve">   3.3743</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1768</t>
+          <t xml:space="preserve">   5.1662</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1966</t>
+          <t xml:space="preserve">   0.1970</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6663</t>
+          <t xml:space="preserve">   0.6666</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0925</t>
+          <t xml:space="preserve">   0.0950</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9671</t>
+          <t xml:space="preserve">   4.9712</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8320</t>
+          <t xml:space="preserve">   5.8218</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2583</t>
+          <t xml:space="preserve">   1.2597</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0952</t>
+          <t xml:space="preserve">   3.0752</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2570</t>
+          <t xml:space="preserve">   0.2580</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4350</t>
+          <t xml:space="preserve">   0.4337</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1584</t>
+          <t xml:space="preserve">   1.1594</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0500</t>
+          <t xml:space="preserve">   0.0496</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4439</t>
+          <t xml:space="preserve">   0.4436</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1420</t>
+          <t xml:space="preserve">   0.1410</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5397</t>
+          <t xml:space="preserve">   4.5441</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2427</t>
+          <t xml:space="preserve">   0.2440</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9112</t>
+          <t xml:space="preserve">   0.9139</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6318</t>
+          <t xml:space="preserve">   0.6320</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1523,17 +1523,17 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3468</t>
+          <t xml:space="preserve">   0.3450</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2701</t>
+          <t xml:space="preserve">   0.2726</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.8052</t>
+          <t xml:space="preserve">   2.8031</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1543,139 +1543,139 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1182</t>
+          <t xml:space="preserve">   0.1175</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2360</t>
+          <t xml:space="preserve">   1.2373</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1282</t>
+          <t xml:space="preserve">   0.1276</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 317.9323</t>
+          <t xml:space="preserve"> 317.1063</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0637</t>
+          <t xml:space="preserve">   6.0645</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08.03.2024</t>
+          <t>13.03.2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0212</t>
+          <t xml:space="preserve">   3.0038</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5406</t>
+          <t xml:space="preserve">   2.5398</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3826</t>
+          <t xml:space="preserve">   3.3684</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1867</t>
+          <t xml:space="preserve">   5.1739</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1961</t>
+          <t xml:space="preserve">   0.1965</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6666</t>
+          <t xml:space="preserve">   0.6662</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0921</t>
+          <t xml:space="preserve">   0.0938</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9691</t>
+          <t xml:space="preserve">   4.9675</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8319</t>
+          <t xml:space="preserve">   5.8116</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2608</t>
+          <t xml:space="preserve">   1.2507</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0890</t>
+          <t xml:space="preserve">   3.0721</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2572</t>
+          <t xml:space="preserve">   0.2574</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4377</t>
+          <t xml:space="preserve">   0.4324</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1540</t>
+          <t xml:space="preserve">   1.1595</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0501</t>
+          <t xml:space="preserve">   0.0496</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4449</t>
+          <t xml:space="preserve">   0.4433</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1425</t>
+          <t xml:space="preserve">   0.1418</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5463</t>
+          <t xml:space="preserve">   4.5440</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2437</t>
+          <t xml:space="preserve">   0.2436</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9211</t>
+          <t xml:space="preserve">   0.9143</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6323</t>
+          <t xml:space="preserve">   0.6317</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3452</t>
+          <t xml:space="preserve">   0.3454</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2698</t>
+          <t xml:space="preserve">   0.2710</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.8118</t>
+          <t xml:space="preserve">   2.7959</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1705,159 +1705,159 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1189</t>
+          <t xml:space="preserve">   0.1171</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2378</t>
+          <t xml:space="preserve">   1.2372</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1283</t>
+          <t xml:space="preserve">   0.1273</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 316.8932</t>
+          <t xml:space="preserve"> 316.0494</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0680</t>
+          <t xml:space="preserve">   6.0616</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07.03.2024</t>
+          <t>12.03.2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0127</t>
+          <t xml:space="preserve">   3.0046</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5415</t>
+          <t xml:space="preserve">   2.5393</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3797</t>
+          <t xml:space="preserve">   3.3725</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1808</t>
+          <t xml:space="preserve">   5.1829</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1959</t>
+          <t xml:space="preserve">   0.1964</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6668</t>
+          <t xml:space="preserve">   0.6660</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0923</t>
+          <t xml:space="preserve">   0.0931</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9707</t>
+          <t xml:space="preserve">   4.9665</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8198</t>
+          <t xml:space="preserve">   5.8129</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2594</t>
+          <t xml:space="preserve">   1.2521</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0842</t>
+          <t xml:space="preserve">   3.0823</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2573</t>
+          <t xml:space="preserve">   0.2563</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4359</t>
+          <t xml:space="preserve">   0.4347</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1546</t>
+          <t xml:space="preserve">   1.1595</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0502</t>
+          <t xml:space="preserve">   0.0498</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4438</t>
+          <t xml:space="preserve">   0.4449</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1435</t>
+          <t xml:space="preserve">   0.1417</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5632</t>
+          <t xml:space="preserve">   4.5427</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2426</t>
+          <t xml:space="preserve">   0.2445</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9228</t>
+          <t xml:space="preserve">   0.9130</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6339</t>
+          <t xml:space="preserve">   0.6330</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0552</t>
+          <t xml:space="preserve">   0.0549</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3431</t>
+          <t xml:space="preserve">   0.3470</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2707</t>
+          <t xml:space="preserve">   0.2706</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.8101</t>
+          <t xml:space="preserve">   2.7995</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1867,159 +1867,159 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1198</t>
+          <t xml:space="preserve">   0.1180</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2424</t>
+          <t xml:space="preserve">   1.2368</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1283</t>
+          <t xml:space="preserve">   0.1277</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 316.5574</t>
+          <t xml:space="preserve"> 317.8931</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0786</t>
+          <t xml:space="preserve">   6.0632</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>11.03.2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.9812</t>
+          <t xml:space="preserve">   3.0037</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5420</t>
+          <t xml:space="preserve">   2.5396</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3649</t>
+          <t xml:space="preserve">   3.3695</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1647</t>
+          <t xml:space="preserve">   5.1768</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1963</t>
+          <t xml:space="preserve">   0.1966</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6670</t>
+          <t xml:space="preserve">   0.6663</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0908</t>
+          <t xml:space="preserve">   0.0925</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9718</t>
+          <t xml:space="preserve">   4.9671</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8146</t>
+          <t xml:space="preserve">   5.8320</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2650</t>
+          <t xml:space="preserve">   1.2583</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0518</t>
+          <t xml:space="preserve">   3.0952</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2582</t>
+          <t xml:space="preserve">   0.2570</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4332</t>
+          <t xml:space="preserve">   0.4350</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1545</t>
+          <t xml:space="preserve">   1.1584</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0507</t>
+          <t xml:space="preserve">   0.0500</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4407</t>
+          <t xml:space="preserve">   0.4439</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1438</t>
+          <t xml:space="preserve">   0.1420</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5713</t>
+          <t xml:space="preserve">   4.5397</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2419</t>
+          <t xml:space="preserve">   0.2427</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9219</t>
+          <t xml:space="preserve">   0.9112</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6350</t>
+          <t xml:space="preserve">   0.6318</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0552</t>
+          <t xml:space="preserve">   0.0549</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3425</t>
+          <t xml:space="preserve">   0.3468</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2704</t>
+          <t xml:space="preserve">   0.2701</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.7874</t>
+          <t xml:space="preserve">   2.8052</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2029,159 +2029,159 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1195</t>
+          <t xml:space="preserve">   0.1182</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2447</t>
+          <t xml:space="preserve">   1.2360</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1279</t>
+          <t xml:space="preserve">   0.1282</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 312.2892</t>
+          <t xml:space="preserve"> 317.9323</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0800</t>
+          <t xml:space="preserve">   6.0637</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05.03.2024</t>
+          <t>08.03.2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.9762</t>
+          <t xml:space="preserve">   3.0212</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.5421</t>
+          <t xml:space="preserve">   2.5406</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.3736</t>
+          <t xml:space="preserve">   3.3826</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.1707</t>
+          <t xml:space="preserve">   5.1867</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1959</t>
+          <t xml:space="preserve">   0.1961</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6670</t>
+          <t xml:space="preserve">   0.6666</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1483</t>
+          <t xml:space="preserve">   0.0921</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.9719</t>
+          <t xml:space="preserve">   4.9691</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5.8130</t>
+          <t xml:space="preserve">   5.8319</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2560</t>
+          <t xml:space="preserve">   1.2608</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3.0463</t>
+          <t xml:space="preserve">   3.0890</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2580</t>
+          <t xml:space="preserve">   0.2572</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4336</t>
+          <t xml:space="preserve">   0.4377</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.1498</t>
+          <t xml:space="preserve">   1.1540</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0503</t>
+          <t xml:space="preserve">   0.0501</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.4409</t>
+          <t xml:space="preserve">   0.4449</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1447</t>
+          <t xml:space="preserve">   0.1425</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4.5820</t>
+          <t xml:space="preserve">   4.5463</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2413</t>
+          <t xml:space="preserve">   0.2437</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.9263</t>
+          <t xml:space="preserve">   0.9211</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.6365</t>
+          <t xml:space="preserve">   0.6323</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.0553</t>
+          <t xml:space="preserve">   0.0549</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.3436</t>
+          <t xml:space="preserve">   0.3452</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.2700</t>
+          <t xml:space="preserve">   0.2698</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2.7876</t>
+          <t xml:space="preserve">   2.8118</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2191,27 +2191,27 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1193</t>
+          <t xml:space="preserve">   0.1189</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1.2475</t>
+          <t xml:space="preserve">   1.2378</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.1279</t>
+          <t xml:space="preserve">   0.1283</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 312.9021</t>
+          <t xml:space="preserve"> 316.8932</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6.0870</t>
+          <t xml:space="preserve">   6.0680</t>
         </is>
       </c>
     </row>
